--- a/publication/web-root/matchsync/0.1.1/StructureDefinition-ms-rhstatus-observation.xlsx
+++ b/publication/web-root/matchsync/0.1.1/StructureDefinition-ms-rhstatus-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-11T17:47:55-06:00</t>
+    <t>2024-12-02T18:26:03-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/matchsync/0.1.1/StructureDefinition-ms-rhstatus-observation.xlsx
+++ b/publication/web-root/matchsync/0.1.1/StructureDefinition-ms-rhstatus-observation.xlsx
@@ -33,13 +33,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>MSRhStatusObservation</t>
+    <t>Observation_MS_RhStatus</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T18:26:03-06:00</t>
+    <t>2025-04-15T15:35:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
